--- a/doc/excel-fucker/23132.xlsx
+++ b/doc/excel-fucker/23132.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15885" windowHeight="6030" activeTab="3"/>
+    <workbookView windowWidth="13545" windowHeight="4710"/>
   </bookViews>
   <sheets>
     <sheet name="配置" sheetId="2" r:id="rId1"/>
@@ -163,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405">
   <si>
     <t>sheet</t>
   </si>
@@ -175,6 +175,12 @@
   </si>
   <si>
     <t>desc</t>
+  </si>
+  <si>
+    <t>峰</t>
+  </si>
+  <si>
+    <t>方式</t>
   </si>
   <si>
     <t>putCardSound</t>
@@ -1379,9 +1385,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -1399,77 +1405,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1497,7 +1442,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1520,6 +1519,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -1529,15 +1536,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1594,7 +1600,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1606,7 +1630,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1618,25 +1702,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1648,61 +1744,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1714,55 +1762,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1791,11 +1797,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1804,6 +1816,32 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1824,41 +1862,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1874,17 +1877,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1896,10 +1902,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1908,133 +1914,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2142,6 +2148,11 @@
       <color rgb="00F6D832"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2426,20 +2437,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="2" width="13.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
@@ -2462,30 +2472,30 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14">
-        <v>1</v>
-      </c>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>5</v>
       </c>
+      <c r="D2" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="14">
+        <v>1</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2497,10 +2507,24 @@
         <v>8</v>
       </c>
       <c r="C4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2511,7 +2535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F152"/>
   <sheetViews>
@@ -2531,42 +2555,42 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2580,13 +2604,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3" s="7">
         <v>0</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2600,13 +2624,13 @@
         <v>2</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2620,13 +2644,13 @@
         <v>3</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5" s="7">
         <v>0</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2640,13 +2664,13 @@
         <v>4</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E6" s="7">
         <v>0</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2660,13 +2684,13 @@
         <v>5</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E7" s="7">
         <v>0</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2680,13 +2704,13 @@
         <v>6</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E8" s="7">
         <v>0</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2700,13 +2724,13 @@
         <v>7</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E9" s="7">
         <v>0</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2720,13 +2744,13 @@
         <v>8</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E10" s="7">
         <v>0</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2740,13 +2764,13 @@
         <v>9</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E11" s="7">
         <v>0</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2760,13 +2784,13 @@
         <v>10</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E12" s="7">
         <v>0</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2780,13 +2804,13 @@
         <v>11</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E13" s="7">
         <v>0</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2800,13 +2824,13 @@
         <v>12</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E14" s="7">
         <v>0</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2820,13 +2844,13 @@
         <v>13</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E15" s="7">
         <v>0</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2840,13 +2864,13 @@
         <v>18</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E16" s="7">
         <v>0</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2860,13 +2884,13 @@
         <v>19</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E17" s="7">
         <v>0</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2880,13 +2904,13 @@
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2900,13 +2924,13 @@
         <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2920,13 +2944,13 @@
         <v>3</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2940,13 +2964,13 @@
         <v>4</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2960,13 +2984,13 @@
         <v>5</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2980,13 +3004,13 @@
         <v>6</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3000,13 +3024,13 @@
         <v>7</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3020,13 +3044,13 @@
         <v>8</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3040,13 +3064,13 @@
         <v>9</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3060,13 +3084,13 @@
         <v>10</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3080,13 +3104,13 @@
         <v>11</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3100,13 +3124,13 @@
         <v>12</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3120,13 +3144,13 @@
         <v>13</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3140,13 +3164,13 @@
         <v>18</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3160,13 +3184,13 @@
         <v>19</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3180,13 +3204,13 @@
         <v>1</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E33" s="7">
         <v>0</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3200,13 +3224,13 @@
         <v>2</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E34" s="7">
         <v>0</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3220,13 +3244,13 @@
         <v>3</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E35" s="7">
         <v>0</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3240,13 +3264,13 @@
         <v>4</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E36" s="7">
         <v>0</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3260,13 +3284,13 @@
         <v>5</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E37" s="7">
         <v>0</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3280,13 +3304,13 @@
         <v>6</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E38" s="7">
         <v>0</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3300,13 +3324,13 @@
         <v>7</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E39" s="7">
         <v>0</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3320,13 +3344,13 @@
         <v>8</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E40" s="7">
         <v>0</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3340,13 +3364,13 @@
         <v>9</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E41" s="7">
         <v>0</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3360,13 +3384,13 @@
         <v>10</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E42" s="7">
         <v>0</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3380,13 +3404,13 @@
         <v>11</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E43" s="7">
         <v>0</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -3400,13 +3424,13 @@
         <v>12</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E44" s="7">
         <v>0</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3420,13 +3444,13 @@
         <v>13</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E45" s="1">
         <v>0</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3440,13 +3464,13 @@
         <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -3460,13 +3484,13 @@
         <v>2</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3480,13 +3504,13 @@
         <v>3</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3500,13 +3524,13 @@
         <v>4</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3520,13 +3544,13 @@
         <v>5</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E50" s="1">
         <v>1</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3540,13 +3564,13 @@
         <v>6</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3560,13 +3584,13 @@
         <v>7</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E52" s="1">
         <v>1</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -3580,13 +3604,13 @@
         <v>8</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E53" s="1">
         <v>1</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3600,13 +3624,13 @@
         <v>9</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E54" s="1">
         <v>1</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3620,13 +3644,13 @@
         <v>10</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E55" s="1">
         <v>1</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3640,13 +3664,13 @@
         <v>11</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3660,13 +3684,13 @@
         <v>12</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E57" s="1">
         <v>1</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3680,13 +3704,13 @@
         <v>13</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3700,13 +3724,13 @@
         <v>1</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E59" s="7">
         <v>0</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3720,13 +3744,13 @@
         <v>2</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E60" s="7">
         <v>0</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3740,13 +3764,13 @@
         <v>3</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E61" s="7">
         <v>0</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3760,13 +3784,13 @@
         <v>4</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E62" s="7">
         <v>0</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3780,13 +3804,13 @@
         <v>5</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E63" s="7">
         <v>0</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3800,13 +3824,13 @@
         <v>6</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E64" s="7">
         <v>0</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3820,13 +3844,13 @@
         <v>7</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E65" s="7">
         <v>0</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3840,13 +3864,13 @@
         <v>8</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E66" s="7">
         <v>0</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3860,13 +3884,13 @@
         <v>9</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E67" s="7">
         <v>0</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3880,13 +3904,13 @@
         <v>10</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E68" s="7">
         <v>0</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3900,13 +3924,13 @@
         <v>11</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E69" s="7">
         <v>0</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3920,13 +3944,13 @@
         <v>12</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E70" s="7">
         <v>0</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3940,13 +3964,13 @@
         <v>13</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E71" s="7">
         <v>0</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3960,13 +3984,13 @@
         <v>1</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E72" s="1">
         <v>1</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3980,13 +4004,13 @@
         <v>2</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E73" s="1">
         <v>1</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -4000,13 +4024,13 @@
         <v>3</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E74" s="1">
         <v>1</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -4020,13 +4044,13 @@
         <v>4</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E75" s="1">
         <v>1</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -4040,13 +4064,13 @@
         <v>5</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E76" s="1">
         <v>1</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -4060,13 +4084,13 @@
         <v>6</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E77" s="1">
         <v>1</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -4080,13 +4104,13 @@
         <v>7</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E78" s="1">
         <v>1</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -4100,13 +4124,13 @@
         <v>8</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E79" s="1">
         <v>1</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -4120,13 +4144,13 @@
         <v>9</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E80" s="1">
         <v>1</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -4140,13 +4164,13 @@
         <v>10</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E81" s="1">
         <v>1</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -4160,13 +4184,13 @@
         <v>11</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E82" s="1">
         <v>1</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -4180,13 +4204,13 @@
         <v>12</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E83" s="1">
         <v>1</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -4200,13 +4224,13 @@
         <v>13</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E84" s="1">
         <v>1</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -4220,13 +4244,13 @@
         <v>0</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E85" s="7">
         <v>0</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -4240,13 +4264,13 @@
         <v>0</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E86" s="7">
         <v>0</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -4260,13 +4284,13 @@
         <v>0</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E87" s="7">
         <v>0</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -4280,13 +4304,13 @@
         <v>0</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E88" s="7">
         <v>0</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -4300,13 +4324,13 @@
         <v>0</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E89" s="7">
         <v>0</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -4320,13 +4344,13 @@
         <v>0</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E90" s="7">
         <v>0</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -4334,19 +4358,19 @@
         <v>89</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C91" s="7">
         <v>0</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E91" s="7">
         <v>0</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -4360,13 +4384,13 @@
         <v>0</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E92" s="7">
         <v>0</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -4380,13 +4404,13 @@
         <v>0</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E93" s="7">
         <v>0</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -4400,13 +4424,13 @@
         <v>0</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E94" s="1">
         <v>1</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -4420,13 +4444,13 @@
         <v>0</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E95" s="1">
         <v>1</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -4440,13 +4464,13 @@
         <v>0</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E96" s="1">
         <v>1</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -4460,13 +4484,13 @@
         <v>0</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E97" s="1">
         <v>1</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -4480,13 +4504,13 @@
         <v>0</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E98" s="1">
         <v>1</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -4500,13 +4524,13 @@
         <v>0</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E99" s="1">
         <v>1</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -4514,19 +4538,19 @@
         <v>98</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C100" s="1">
         <v>0</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E100" s="1">
         <v>1</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -4540,13 +4564,13 @@
         <v>0</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E101" s="1">
         <v>1</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -4560,13 +4584,13 @@
         <v>0</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E102" s="1">
         <v>1</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -4580,13 +4604,13 @@
         <v>0</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E103" s="7">
         <v>0</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -4600,13 +4624,13 @@
         <v>0</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E104" s="7">
         <v>0</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -4620,13 +4644,13 @@
         <v>0</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E105" s="7">
         <v>0</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -4640,13 +4664,13 @@
         <v>0</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E106" s="7">
         <v>0</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -4660,13 +4684,13 @@
         <v>0</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E107" s="7">
         <v>0</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -4680,13 +4704,13 @@
         <v>0</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E108" s="7">
         <v>0</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -4700,13 +4724,13 @@
         <v>0</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E109" s="7">
         <v>0</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -4720,13 +4744,13 @@
         <v>0</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E110" s="7">
         <v>0</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -4740,13 +4764,13 @@
         <v>0</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E111" s="7">
         <v>0</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -4760,13 +4784,13 @@
         <v>0</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E112" s="7">
         <v>0</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -4780,13 +4804,13 @@
         <v>0</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E113" s="7">
         <v>0</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4800,13 +4824,13 @@
         <v>0</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E114" s="7">
         <v>0</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -4820,13 +4844,13 @@
         <v>0</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E115" s="7">
         <v>0</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4840,13 +4864,13 @@
         <v>0</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E116" s="7">
         <v>0</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -4860,13 +4884,13 @@
         <v>0</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E117" s="1">
         <v>1</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4880,13 +4904,13 @@
         <v>0</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E118" s="1">
         <v>1</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4900,13 +4924,13 @@
         <v>0</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E119" s="1">
         <v>1</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4920,13 +4944,13 @@
         <v>0</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E120" s="1">
         <v>1</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4940,13 +4964,13 @@
         <v>0</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E121" s="1">
         <v>1</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4960,13 +4984,13 @@
         <v>0</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E122" s="1">
         <v>1</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4980,13 +5004,13 @@
         <v>0</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E123" s="1">
         <v>1</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -5000,13 +5024,13 @@
         <v>0</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E124" s="1">
         <v>1</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -5020,13 +5044,13 @@
         <v>0</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E125" s="1">
         <v>1</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -5040,13 +5064,13 @@
         <v>0</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E126" s="1">
         <v>1</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -5060,13 +5084,13 @@
         <v>0</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E127" s="1">
         <v>1</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -5080,13 +5104,13 @@
         <v>0</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E128" s="1">
         <v>1</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -5100,13 +5124,13 @@
         <v>0</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E129" s="1">
         <v>1</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -5120,13 +5144,13 @@
         <v>0</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E130" s="1">
         <v>1</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -5140,13 +5164,13 @@
         <v>1</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E131" s="7">
         <v>0</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -5160,13 +5184,13 @@
         <v>2</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E132" s="7">
         <v>0</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -5180,13 +5204,13 @@
         <v>3</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E133" s="7">
         <v>0</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -5200,13 +5224,13 @@
         <v>4</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E134" s="7">
         <v>0</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -5220,13 +5244,13 @@
         <v>5</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E135" s="7">
         <v>0</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -5240,13 +5264,13 @@
         <v>6</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E136" s="7">
         <v>0</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -5260,13 +5284,13 @@
         <v>7</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E137" s="7">
         <v>0</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -5280,13 +5304,13 @@
         <v>8</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E138" s="7">
         <v>0</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -5300,13 +5324,13 @@
         <v>9</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E139" s="7">
         <v>0</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -5320,13 +5344,13 @@
         <v>10</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E140" s="7">
         <v>0</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -5340,13 +5364,13 @@
         <v>11</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E141" s="7">
         <v>0</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -5360,13 +5384,13 @@
         <v>1</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E142" s="1">
         <v>1</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -5380,13 +5404,13 @@
         <v>2</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E143" s="1">
         <v>1</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -5400,13 +5424,13 @@
         <v>3</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E144" s="1">
         <v>1</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -5420,13 +5444,13 @@
         <v>4</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E145" s="1">
         <v>1</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -5440,13 +5464,13 @@
         <v>5</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E146" s="1">
         <v>1</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -5460,13 +5484,13 @@
         <v>6</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E147" s="1">
         <v>1</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -5480,13 +5504,13 @@
         <v>7</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E148" s="1">
         <v>1</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -5500,13 +5524,13 @@
         <v>8</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E149" s="1">
         <v>1</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -5520,13 +5544,13 @@
         <v>9</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E150" s="1">
         <v>1</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -5540,13 +5564,13 @@
         <v>10</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E151" s="1">
         <v>1</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -5560,13 +5584,13 @@
         <v>11</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E152" s="1">
         <v>1</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -5578,7 +5602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F98"/>
   <sheetViews>
@@ -5595,42 +5619,42 @@
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:6">
       <c r="A1" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:6">
       <c r="A2" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" spans="1:6">
@@ -5650,7 +5674,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:6">
@@ -5670,7 +5694,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" s="4" customFormat="1" spans="1:6">
@@ -5690,7 +5714,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" s="4" customFormat="1" spans="1:6">
@@ -5710,7 +5734,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="1" spans="1:6">
@@ -5730,7 +5754,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" s="4" customFormat="1" spans="1:6">
@@ -5750,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" s="4" customFormat="1" spans="1:6">
@@ -5770,7 +5794,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" s="4" customFormat="1" spans="1:6">
@@ -5790,7 +5814,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" s="4" customFormat="1" spans="1:6">
@@ -5810,7 +5834,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="1" spans="1:6">
@@ -5830,7 +5854,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" s="4" customFormat="1" spans="1:6">
@@ -5850,7 +5874,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" s="4" customFormat="1" spans="1:6">
@@ -5870,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" s="4" customFormat="1" spans="1:6">
@@ -5890,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" s="4" customFormat="1" spans="1:6">
@@ -5910,7 +5934,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" s="4" customFormat="1" spans="1:6">
@@ -5930,7 +5954,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" s="4" customFormat="1" spans="1:6">
@@ -5950,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" s="4" customFormat="1" spans="1:6">
@@ -5970,7 +5994,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:6">
@@ -5990,7 +6014,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:6">
@@ -6010,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" s="4" customFormat="1" spans="1:6">
@@ -6030,7 +6054,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" s="4" customFormat="1" spans="1:6">
@@ -6050,7 +6074,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" s="4" customFormat="1" spans="1:6">
@@ -6070,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" s="4" customFormat="1" spans="1:6">
@@ -6090,7 +6114,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" s="4" customFormat="1" spans="1:6">
@@ -6110,7 +6134,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" s="4" customFormat="1" spans="1:6">
@@ -6130,7 +6154,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" s="4" customFormat="1" spans="1:6">
@@ -6150,7 +6174,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29" s="4" customFormat="1" spans="1:6">
@@ -6170,7 +6194,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" s="4" customFormat="1" spans="1:6">
@@ -6190,7 +6214,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31" s="4" customFormat="1" spans="1:6">
@@ -6210,7 +6234,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32" s="4" customFormat="1" spans="1:6">
@@ -6230,7 +6254,7 @@
         <v>2</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="33" s="4" customFormat="1" spans="1:6">
@@ -6250,7 +6274,7 @@
         <v>3</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="34" s="4" customFormat="1" spans="1:6">
@@ -6270,7 +6294,7 @@
         <v>4</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35" s="5" customFormat="1" spans="1:6">
@@ -6290,7 +6314,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36" s="5" customFormat="1" spans="1:6">
@@ -6310,7 +6334,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37" s="5" customFormat="1" spans="1:6">
@@ -6330,7 +6354,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38" s="5" customFormat="1" spans="1:6">
@@ -6350,7 +6374,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" s="5" customFormat="1" spans="1:6">
@@ -6370,7 +6394,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="40" s="5" customFormat="1" spans="1:6">
@@ -6390,7 +6414,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="41" s="5" customFormat="1" spans="1:6">
@@ -6410,7 +6434,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42" s="5" customFormat="1" spans="1:6">
@@ -6430,7 +6454,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43" s="5" customFormat="1" spans="1:6">
@@ -6450,7 +6474,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="44" s="5" customFormat="1" spans="1:6">
@@ -6470,7 +6494,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="45" s="5" customFormat="1" spans="1:6">
@@ -6490,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="46" s="5" customFormat="1" spans="1:6">
@@ -6510,7 +6534,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="47" s="5" customFormat="1" spans="1:6">
@@ -6530,7 +6554,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="48" s="5" customFormat="1" spans="1:6">
@@ -6550,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="49" s="5" customFormat="1" spans="1:6">
@@ -6570,7 +6594,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="50" s="5" customFormat="1" spans="1:6">
@@ -6590,7 +6614,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="51" s="5" customFormat="1" spans="1:6">
@@ -6610,7 +6634,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="52" s="5" customFormat="1" spans="1:6">
@@ -6630,7 +6654,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="53" s="5" customFormat="1" spans="1:6">
@@ -6650,7 +6674,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="54" s="5" customFormat="1" spans="1:6">
@@ -6670,7 +6694,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="55" s="5" customFormat="1" spans="1:6">
@@ -6690,7 +6714,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="56" s="5" customFormat="1" spans="1:6">
@@ -6710,7 +6734,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="57" s="5" customFormat="1" spans="1:6">
@@ -6730,7 +6754,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="58" s="5" customFormat="1" spans="1:6">
@@ -6750,7 +6774,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="59" s="5" customFormat="1" spans="1:6">
@@ -6770,7 +6794,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="60" s="5" customFormat="1" spans="1:6">
@@ -6790,7 +6814,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="61" s="5" customFormat="1" spans="1:6">
@@ -6810,7 +6834,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="62" s="5" customFormat="1" spans="1:6">
@@ -6830,7 +6854,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="63" s="5" customFormat="1" spans="1:6">
@@ -6850,7 +6874,7 @@
         <v>1</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="64" s="5" customFormat="1" spans="1:6">
@@ -6870,7 +6894,7 @@
         <v>2</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="65" s="5" customFormat="1" spans="1:6">
@@ -6890,7 +6914,7 @@
         <v>3</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="66" s="5" customFormat="1" spans="1:6">
@@ -6910,7 +6934,7 @@
         <v>4</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="67" s="6" customFormat="1" spans="1:6">
@@ -6930,7 +6954,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="68" s="6" customFormat="1" spans="1:6">
@@ -6950,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="69" s="6" customFormat="1" spans="1:6">
@@ -6970,7 +6994,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="70" s="6" customFormat="1" spans="1:6">
@@ -6990,7 +7014,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="71" s="6" customFormat="1" spans="1:6">
@@ -7010,7 +7034,7 @@
         <v>0</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="72" s="6" customFormat="1" spans="1:6">
@@ -7030,7 +7054,7 @@
         <v>0</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="73" s="6" customFormat="1" spans="1:6">
@@ -7050,7 +7074,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="74" s="6" customFormat="1" spans="1:6">
@@ -7070,7 +7094,7 @@
         <v>0</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="75" s="6" customFormat="1" spans="1:6">
@@ -7090,7 +7114,7 @@
         <v>0</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="76" s="6" customFormat="1" spans="1:6">
@@ -7110,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="77" s="6" customFormat="1" spans="1:6">
@@ -7130,7 +7154,7 @@
         <v>0</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="78" s="6" customFormat="1" spans="1:6">
@@ -7150,7 +7174,7 @@
         <v>0</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="79" s="6" customFormat="1" spans="1:6">
@@ -7170,7 +7194,7 @@
         <v>0</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="80" s="6" customFormat="1" spans="1:6">
@@ -7190,7 +7214,7 @@
         <v>0</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="81" s="6" customFormat="1" spans="1:6">
@@ -7210,7 +7234,7 @@
         <v>0</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="82" s="6" customFormat="1" spans="1:6">
@@ -7230,7 +7254,7 @@
         <v>0</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="83" s="6" customFormat="1" spans="1:6">
@@ -7250,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="84" s="6" customFormat="1" spans="1:6">
@@ -7270,7 +7294,7 @@
         <v>0</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="85" s="6" customFormat="1" spans="1:6">
@@ -7290,7 +7314,7 @@
         <v>0</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="86" s="6" customFormat="1" spans="1:6">
@@ -7310,7 +7334,7 @@
         <v>0</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="87" s="6" customFormat="1" spans="1:6">
@@ -7330,7 +7354,7 @@
         <v>0</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="88" s="6" customFormat="1" spans="1:6">
@@ -7350,7 +7374,7 @@
         <v>0</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="89" s="6" customFormat="1" spans="1:6">
@@ -7370,7 +7394,7 @@
         <v>0</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="90" s="6" customFormat="1" spans="1:6">
@@ -7390,7 +7414,7 @@
         <v>0</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="91" s="6" customFormat="1" spans="1:6">
@@ -7410,7 +7434,7 @@
         <v>0</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="92" s="6" customFormat="1" spans="1:6">
@@ -7430,7 +7454,7 @@
         <v>0</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="93" s="6" customFormat="1" spans="1:6">
@@ -7450,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="94" s="6" customFormat="1" spans="1:6">
@@ -7470,7 +7494,7 @@
         <v>0</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="95" s="6" customFormat="1" spans="1:6">
@@ -7490,7 +7514,7 @@
         <v>1</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="96" s="6" customFormat="1" spans="1:6">
@@ -7510,7 +7534,7 @@
         <v>2</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="97" s="6" customFormat="1" spans="1:6">
@@ -7530,7 +7554,7 @@
         <v>3</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="98" s="6" customFormat="1" spans="1:6">
@@ -7550,7 +7574,7 @@
         <v>4</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -7562,11 +7586,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
@@ -7576,24 +7600,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" ht="17.25" spans="1:3">
@@ -7601,10 +7625,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" ht="17.25" spans="1:3">
@@ -7612,10 +7636,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" ht="17.25" spans="1:3">
@@ -7623,10 +7647,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:3">
@@ -7634,10 +7658,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:3">
@@ -7645,10 +7669,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" ht="17.25" spans="1:3">
@@ -7656,10 +7680,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" ht="17.25" spans="1:3">
@@ -7667,10 +7691,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="1:3">
@@ -7678,10 +7702,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" ht="17.25" spans="1:3">
@@ -7689,10 +7713,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" ht="17.25" spans="1:3">
@@ -7700,10 +7724,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13" ht="17.25" spans="1:3">
@@ -7711,10 +7735,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" ht="17.25" spans="1:3">
@@ -7722,10 +7746,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" ht="17.25" spans="1:3">
@@ -7733,10 +7757,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="16" ht="17.25" spans="1:3">
@@ -7744,10 +7768,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="17" ht="17.25" spans="1:3">
@@ -7755,10 +7779,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="18" ht="17.25" spans="1:3">
@@ -7766,10 +7790,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="19" ht="17.25" spans="1:3">
@@ -7777,10 +7801,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" ht="17.25" spans="1:3">
@@ -7788,10 +7812,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="21" ht="17.25" spans="1:3">
@@ -7799,10 +7823,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="22" ht="17.25" spans="1:3">
@@ -7810,10 +7834,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="23" ht="17.25" spans="1:3">
@@ -7821,10 +7845,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="24" ht="17.25" spans="1:3">
@@ -7832,10 +7856,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="25" ht="17.25" spans="1:3">
@@ -7843,10 +7867,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="26" ht="17.25" spans="1:3">
@@ -7854,10 +7878,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
